--- a/docs/template.xlsx
+++ b/docs/template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Documents\y2y\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\wms-office\文档\tencent files\914098208\filerecv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7A0098-CED9-4BFA-9779-EDCEB90C69D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>核算账簿</t>
   </si>
@@ -70,7 +69,10 @@
     <t>辅助核算2</t>
   </si>
   <si>
-    <t>"null_$head,main_m_pk_accountingbook,main_m_pk_vouchertype,main_pk_prepared,main_m_prepareddate,m_explanation,m_accsubjcode,m_pk_currtype,m_debitamount,m_localdebitamount,unitname,m_creditamount,m_localcreditamount,verifydate,m_excrate2,ass_1,ass_2"</t>
+    <t>辅助核算3</t>
+  </si>
+  <si>
+    <t>"null_$head,main_m_pk_accountingbook,main_m_pk_vouchertype,main_pk_prepared,main_m_prepareddate,m_explanation,m_accsubjcode,m_pk_currtype,m_debitamount,m_localdebitamount,unitname,m_creditamount,m_localcreditamount,verifydate,m_excrate2,ass_1,ass_2,ass_3"</t>
   </si>
   <si>
     <t>*导入须知:
@@ -86,18 +88,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -151,7 +153,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -167,7 +169,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -179,7 +181,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -196,9 +198,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -226,31 +228,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -278,23 +263,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,29 +414,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD52"/>
+      <selection activeCell="A3" sqref="A3:XFD41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="98" style="2" customWidth="1"/>
-    <col min="2" max="5" width="10" style="2"/>
-    <col min="6" max="6" width="24.109375" style="2" customWidth="1"/>
-    <col min="7" max="17" width="10" style="2"/>
+    <col min="2" max="18" width="10" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="108" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -517,10 +483,14 @@
       </c>
       <c r="Q2" t="s">
         <v>15</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>